--- a/逍遥-夜族崛起 RPG大修指令表.xlsx
+++ b/逍遥-夜族崛起 RPG大修指令表.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8429E64-DD6F-4794-981B-35C4360B5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC77FC6-2E81-4F83-A8CA-D223DFDCF532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物升级" sheetId="1" r:id="rId1"/>
     <sheet name="硬币&amp;商店" sheetId="2" r:id="rId2"/>
-    <sheet name="挑战&amp;名人堂" sheetId="3" r:id="rId3"/>
-    <sheet name="武器附魔" sheetId="4" r:id="rId4"/>
-    <sheet name="血质附魔" sheetId="5" r:id="rId5"/>
-    <sheet name="宠物【特色】" sheetId="6" r:id="rId6"/>
-    <sheet name="职业" sheetId="7" r:id="rId7"/>
-    <sheet name="转生系统" sheetId="8" r:id="rId8"/>
-    <sheet name="城堡自动化" sheetId="9" r:id="rId9"/>
+    <sheet name="成就&amp;积分" sheetId="10" r:id="rId3"/>
+    <sheet name="挑战&amp;名人堂" sheetId="3" r:id="rId4"/>
+    <sheet name="武器附魔" sheetId="4" r:id="rId5"/>
+    <sheet name="血质附魔" sheetId="5" r:id="rId6"/>
+    <sheet name="宠物【特色】" sheetId="6" r:id="rId7"/>
+    <sheet name="职业" sheetId="7" r:id="rId8"/>
+    <sheet name="转生系统" sheetId="8" r:id="rId9"/>
+    <sheet name="城堡自动化" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="402">
   <si>
     <t>1.召唤宠物后宠物帮你一起打怪，一起升级
 2.宠物满级后，可将宠物转生。转生时可额外增加选择偏好的属性，但每个属性只能额外增加一次
@@ -1336,36 +1337,6 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>查看当前钱包余额
-以及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人道具</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列表显示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>宠物随机获得一个金色特质
 (</t>
     </r>
@@ -1623,6 +1594,169 @@
   <si>
     <t>不死君王德古拉
 (死亡时有可能导致友方宠物阵亡)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.积分永不清零，所有服务器继承，可用来兑换各种奖励</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别获得5/10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物转生等级8/10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器转生等级10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀昆西</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀屋大维</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀诅咒铁匠</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀异兽</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀无暇者</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀亚当</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次参与击杀德古拉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>血质转生等级10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>与收购商单次交易赚取超过60硬币</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一个传说宠物转生达到10级</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日德古拉活动排名1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日德古拉活动排名2-10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日德古拉活动排名10+</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>天灵果x1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈阳花x1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>太素清灵芝x1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>月神之魂x1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>九翅金蝉x1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币x200</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一个极品宠物转生达到10级</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>每有一个史诗宠物转生达到10级</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看当前钱包余额;和当前积分
+以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人道具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表显示</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.w p l   </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">.w p 商品编号 </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看积分商店列表</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 购买对应编号的积分道具</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1759,7 +1893,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1941,6 +2075,12 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2078,7 +2218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2313,6 +2453,36 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2321,6 +2491,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2647,7 +2823,7 @@
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.375" style="71" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="71" customWidth="1"/>
+    <col min="2" max="2" width="73.75" style="71" customWidth="1"/>
     <col min="3" max="26" width="9" style="71"/>
   </cols>
   <sheetData>
@@ -2740,7 +2916,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
@@ -4846,13 +5022,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="62.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+    </row>
+    <row r="4" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="硬币&amp;商店"/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4868,25 +5153,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
-        <v>367</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="A1" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -4915,8 +5200,8 @@
       <c r="A4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>351</v>
+      <c r="B4" s="79" t="s">
+        <v>397</v>
       </c>
       <c r="E4" s="38">
         <v>1</v>
@@ -4928,7 +5213,7 @@
         <v>145</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I4" s="41">
         <v>5000</v>
@@ -4948,10 +5233,10 @@
         <v>148</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="41">
         <v>8000</v>
@@ -4971,7 +5256,7 @@
         <v>151</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>152</v>
@@ -4997,7 +5282,7 @@
         <v>156</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="41">
         <v>12000</v>
@@ -5017,10 +5302,10 @@
         <v>159</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I8" s="41">
         <v>24000</v>
@@ -5032,7 +5317,7 @@
         <v>160</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
@@ -5054,14 +5339,14 @@
         <v>163</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="E11" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
@@ -5088,13 +5373,13 @@
         <v>170</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" s="54">
         <v>10000</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -5133,6 +5418,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>400</v>
+      </c>
       <c r="E16" s="54" t="s">
         <v>179</v>
       </c>
@@ -5143,7 +5434,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>401</v>
+      </c>
       <c r="E17" s="54" t="s">
         <v>180</v>
       </c>
@@ -5154,7 +5451,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E18" s="54" t="s">
         <v>182</v>
       </c>
@@ -5165,7 +5462,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E19" s="54" t="s">
         <v>184</v>
       </c>
@@ -5176,7 +5473,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E20" s="54" t="s">
         <v>185</v>
       </c>
@@ -5185,7 +5482,7 @@
       </c>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E21" s="54" t="s">
         <v>186</v>
       </c>
@@ -5194,7 +5491,7 @@
       </c>
       <c r="G21" s="54"/>
     </row>
-    <row r="22" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E22" s="54" t="s">
         <v>187</v>
       </c>
@@ -5203,7 +5500,7 @@
       </c>
       <c r="G22" s="54"/>
     </row>
-    <row r="23" spans="5:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E23" s="54" t="s">
         <v>188</v>
       </c>
@@ -5224,6 +5521,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948D3753-CF8F-44A6-888C-D9EFBD7E216E}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="26" style="82" customWidth="1"/>
+    <col min="3" max="7" width="9" style="82"/>
+    <col min="8" max="8" width="25.625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="82" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="85">
+        <v>10</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="85">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="85">
+        <v>10</v>
+      </c>
+      <c r="H7" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="85">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="85">
+        <v>30</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" s="85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="85">
+        <v>10</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>391</v>
+      </c>
+      <c r="I9" s="85">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="85">
+        <v>3</v>
+      </c>
+      <c r="H10" s="90" t="s">
+        <v>392</v>
+      </c>
+      <c r="I10" s="85">
+        <v>600</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="挑战&amp;名人堂"/>
   <dimension ref="A4:C6"/>
@@ -5259,10 +5802,10 @@
     </row>
     <row r="6" spans="1:3" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
@@ -5292,10 +5835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5530,7 +6073,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="97" t="s">
         <v>228</v>
       </c>
       <c r="B18" s="58" t="s">
@@ -5538,19 +6081,19 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="35" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="35" t="s">
         <v>232</v>
       </c>
@@ -5565,7 +6108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -5582,10 +6125,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
       <c r="E1" s="72"/>
@@ -5898,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -5917,10 +6460,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -6170,7 +6713,7 @@
       <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="103" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6187,7 +6730,7 @@
       <c r="E14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="93"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -6318,7 +6861,7 @@
       <c r="E25" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="103" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6329,7 +6872,7 @@
       <c r="E26" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="93"/>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="29" t="s">
@@ -6338,7 +6881,7 @@
       <c r="E27" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6351,7 +6894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -6376,10 +6919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="105"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -6594,14 +7137,14 @@
       <c r="D18" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="4:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="70" t="s">
@@ -6611,7 +7154,7 @@
         <v>303</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G19" s="71" t="s">
         <v>304</v>
@@ -6682,7 +7225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:H18"/>
   <sheetViews>
@@ -6698,10 +7241,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="83"/>
+      <c r="B3" s="93"/>
     </row>
     <row r="4" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
@@ -6908,113 +7451,4 @@
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="62.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-    </row>
-    <row r="4" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>